--- a/resource/data.xlsx
+++ b/resource/data.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="house" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Copy of house" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -25,55 +26,73 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Move with WASD / LS, turn with mouse / RS</t>
+  </si>
+  <si>
+    <t>A hates bright lights.</t>
+  </si>
+  <si>
+    <t>A's room</t>
+  </si>
+  <si>
+    <t>Some doors can be opened.</t>
+  </si>
+  <si>
+    <t>Pi's at uni</t>
+  </si>
+  <si>
+    <t>Pi's room</t>
+  </si>
+  <si>
+    <t>Attack with left mouse / RT</t>
+  </si>
+  <si>
+    <t>J's never home</t>
+  </si>
+  <si>
+    <t>J's room</t>
+  </si>
+  <si>
+    <t>Use ability (throw grenade) with right mouse / LT</t>
+  </si>
+  <si>
+    <t>Tom burns things</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Bullets get slower and weaker if shot through covers</t>
+  </si>
+  <si>
+    <t>A hates loud music. Nu loves it.</t>
+  </si>
+  <si>
+    <t>Try throwing a grenade from the other room to hit them</t>
+  </si>
+  <si>
+    <t>Strange robot-like things are everywhere.</t>
+  </si>
+  <si>
+    <t>Living room</t>
+  </si>
+  <si>
     <t>Arggghh!</t>
   </si>
   <si>
-    <t>A hates bright lights.</t>
-  </si>
-  <si>
-    <t>A's room</t>
-  </si>
-  <si>
     <t>Probably at uni, working late again.</t>
   </si>
   <si>
-    <t>Pi's at uni</t>
-  </si>
-  <si>
-    <t>Pi's room</t>
-  </si>
-  <si>
     <t>Well, he's almost never here anyway, that one.</t>
   </si>
   <si>
-    <t>J's never home</t>
-  </si>
-  <si>
-    <t>J's room</t>
-  </si>
-  <si>
     <t>... pretty sure it's Tom again</t>
   </si>
   <si>
-    <t>Tom burns things</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
     <t>Much better.</t>
   </si>
   <si>
-    <t>A hates loud music. Nu loves it.</t>
-  </si>
-  <si>
     <t>Wait, what are they?</t>
-  </si>
-  <si>
-    <t>Strange robot-like things are everywhere.</t>
-  </si>
-  <si>
-    <t>Living room</t>
   </si>
   <si>
     <t>My god, is she ... dead?</t>
@@ -179,7 +198,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -317,46 +340,22 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="4"/>
@@ -411,4 +410,234 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="5.43"/>
+    <col customWidth="1" min="2" max="2" width="46.14"/>
+    <col customWidth="1" min="3" max="3" width="39.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>